--- a/microservices/orderinfo_service/data/orderInfo.xlsx
+++ b/microservices/orderinfo_service/data/orderInfo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>g</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -489,8 +489,10 @@
           <t>b</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>987654321</v>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>987654321</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -524,11 +526,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>bánh cá bò khô x1, bánh cá matcha x1, bánh cá phô mai x1, bánh cá bò khô x1, bánh cá phô mai sô cô la x1, bánh cá phô mai chà bông x1, bánh cá phô mai sô cô la x2, bánh cá phô mai x1, bánh cá sô cô la x1, bánh cá chà bông x1, bánh cá matcha x3, matcha(size L) x70</t>
+          <t>bánh cá matcha x1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1520000</v>
+        <v>8000</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -546,17 +548,17 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1234578912</v>
+        <v>12234567</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>bánh cá matcha x1</t>
+          <t>bánh cá matcha x1, bánh cá phô mai x1, bánh cá sô cô la x1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -574,17 +576,17 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>12234567</v>
+        <v>123456789</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>bánh cá matcha x1, bánh cá phô mai x1, bánh cá sô cô la x1</t>
+          <t>bánh cá matcha x1, bánh cá phô mai x1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -602,17 +604,17 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>123456789</v>
+        <v>12356789</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>bánh cá matcha x1, bánh cá phô mai x1</t>
+          <t>matcha(size L) x1, matcha(size M) x1, matcha(size S) x1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -630,17 +632,17 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>12356789</v>
+        <v>123456789</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>matcha(size L) x1, matcha(size M) x1, matcha(size S) x1</t>
+          <t>matcha(size L) x1, matcha(size M) x1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -658,17 +660,17 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>123456789</v>
+        <v>123456790</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>matcha(size L) x1, matcha(size M) x1</t>
+          <t>trà chanh(size L) x1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -686,17 +688,17 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>123456790</v>
+        <v>123456789</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>trà chanh(size L) x1</t>
+          <t>trà đào(size S) x1, trà chanh(size L) x1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -714,17 +716,17 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>123456789</v>
+        <v>123456780</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>trà đào(size S) x1, trà chanh(size L) x1</t>
+          <t>bánh cá matcha x1, bánh cá phô mai x1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -742,35 +744,175 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>123456780</v>
+        <v>123456789</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>bánh cá matcha x1, bánh cá phô mai x1</t>
+          <t>bánh cá trứng muối x1, trà đào(size L) x1, trà đào(size M) x1</t>
         </is>
       </c>
       <c r="B12" t="n">
+        <v>45000</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>123456890</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>cacao(size M) x4, cacao(size S) x1</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>70000</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>cacao(size M) x4, cacao(size S) x1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>70000</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>bánh cá matcha x1</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>bánh cá matcha x1</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>bánh cá matcha x1, bánh cá bò khô x1</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>16000</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>123456789</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>12345678</v>
       </c>
     </row>
   </sheetData>
